--- a/BudingCouponTestCase.xlsx
+++ b/BudingCouponTestCase.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="314">
   <si>
     <t>No</t>
   </si>
@@ -1575,6 +1575,10 @@
 3.提示用户请输入正确内容
 4.提示用户请输入正确内容
 5.提示用户请输入正确内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七、</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1767,22 +1771,22 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2086,10 +2090,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J99"/>
+  <dimension ref="A1:J105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="A100" sqref="A100:A105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2139,13 +2143,13 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="168">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="7" t="s">
@@ -2165,10 +2169,10 @@
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:10" ht="96">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="13" t="s">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="10" t="s">
         <v>145</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -2185,10 +2189,10 @@
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" ht="72">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="15"/>
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="11"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
         <v>147</v>
@@ -2201,9 +2205,9 @@
       <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:10" ht="108">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="14"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="15"/>
       <c r="D5" s="7" t="s">
         <v>18</v>
       </c>
@@ -2219,9 +2223,9 @@
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10" ht="108">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="14"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="15"/>
       <c r="D6" s="7" t="s">
         <v>20</v>
       </c>
@@ -2237,9 +2241,9 @@
       <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:10" ht="216">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="14"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
       <c r="D7" s="3" t="s">
         <v>149</v>
       </c>
@@ -2255,9 +2259,9 @@
       <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:10" ht="96">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="14"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="15"/>
       <c r="D8" s="3" t="s">
         <v>23</v>
       </c>
@@ -2273,9 +2277,9 @@
       <c r="J8" s="3"/>
     </row>
     <row r="9" spans="1:10" ht="60">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="14"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
       <c r="D9" s="3" t="s">
         <v>26</v>
       </c>
@@ -2291,9 +2295,9 @@
       <c r="J9" s="3"/>
     </row>
     <row r="10" spans="1:10" ht="96">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="14"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="15"/>
       <c r="D10" s="16" t="s">
         <v>203</v>
       </c>
@@ -2311,9 +2315,9 @@
       <c r="J10" s="3"/>
     </row>
     <row r="11" spans="1:10" ht="72">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="14"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="15"/>
       <c r="D11" s="17"/>
       <c r="E11" s="3" t="s">
         <v>207</v>
@@ -2329,9 +2333,9 @@
       <c r="J11" s="3"/>
     </row>
     <row r="12" spans="1:10" ht="276">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="14"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="15"/>
       <c r="D12" s="3" t="s">
         <v>29</v>
       </c>
@@ -2347,10 +2351,10 @@
       <c r="J12" s="3"/>
     </row>
     <row r="13" spans="1:10" ht="36">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="13" t="s">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="10" t="s">
         <v>211</v>
       </c>
       <c r="E13" s="3" t="s">
@@ -2367,10 +2371,10 @@
       <c r="J13" s="3"/>
     </row>
     <row r="14" spans="1:10" ht="48">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
       <c r="F14" s="3" t="s">
         <v>218</v>
       </c>
@@ -2382,10 +2386,10 @@
       <c r="J14" s="3"/>
     </row>
     <row r="15" spans="1:10" ht="72">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
       <c r="E15" s="3" t="s">
         <v>207</v>
       </c>
@@ -2400,10 +2404,10 @@
       <c r="J15" s="3"/>
     </row>
     <row r="16" spans="1:10" ht="108">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
       <c r="E16" s="3" t="s">
         <v>213</v>
       </c>
@@ -2418,10 +2422,10 @@
       <c r="J16" s="3"/>
     </row>
     <row r="17" spans="1:10" ht="48">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3" t="s">
         <v>218</v>
@@ -2434,10 +2438,10 @@
       <c r="J17" s="3"/>
     </row>
     <row r="18" spans="1:10" ht="108">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
       <c r="E18" s="3" t="s">
         <v>214</v>
       </c>
@@ -2452,10 +2456,10 @@
       <c r="J18" s="3"/>
     </row>
     <row r="19" spans="1:10" ht="60">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="15"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="11"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3" t="s">
         <v>222</v>
@@ -2468,10 +2472,10 @@
       <c r="J19" s="3"/>
     </row>
     <row r="20" spans="1:10" ht="84">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="13" t="s">
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="10" t="s">
         <v>274</v>
       </c>
       <c r="E20" s="3" t="s">
@@ -2488,10 +2492,10 @@
       <c r="J20" s="3"/>
     </row>
     <row r="21" spans="1:10" ht="48">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
       <c r="E21" s="3" t="s">
         <v>280</v>
       </c>
@@ -2506,10 +2510,10 @@
       <c r="J21" s="3"/>
     </row>
     <row r="22" spans="1:10" ht="168">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
       <c r="E22" s="3" t="s">
         <v>281</v>
       </c>
@@ -2524,10 +2528,10 @@
       <c r="J22" s="3"/>
     </row>
     <row r="23" spans="1:10" ht="48">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
       <c r="E23" s="3" t="s">
         <v>284</v>
       </c>
@@ -2542,10 +2546,10 @@
       <c r="J23" s="3"/>
     </row>
     <row r="24" spans="1:10" ht="72">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="15"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="11"/>
       <c r="E24" s="3" t="s">
         <v>287</v>
       </c>
@@ -2560,9 +2564,9 @@
       <c r="J24" s="3"/>
     </row>
     <row r="25" spans="1:10" ht="60">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="14"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
       <c r="D25" s="7" t="s">
         <v>152</v>
       </c>
@@ -2580,10 +2584,10 @@
       <c r="J25" s="3"/>
     </row>
     <row r="26" spans="1:10" ht="84">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="13" t="s">
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="10" t="s">
         <v>161</v>
       </c>
       <c r="E26" s="3" t="s">
@@ -2600,10 +2604,10 @@
       <c r="J26" s="3"/>
     </row>
     <row r="27" spans="1:10" ht="24">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
       <c r="E27" s="3" t="s">
         <v>163</v>
       </c>
@@ -2618,10 +2622,10 @@
       <c r="J27" s="3"/>
     </row>
     <row r="28" spans="1:10" ht="72">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
       <c r="E28" s="3" t="s">
         <v>167</v>
       </c>
@@ -2636,10 +2640,10 @@
       <c r="J28" s="3"/>
     </row>
     <row r="29" spans="1:10" ht="24">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
       <c r="E29" s="3" t="s">
         <v>170</v>
       </c>
@@ -2654,10 +2658,10 @@
       <c r="J29" s="3"/>
     </row>
     <row r="30" spans="1:10" ht="36">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
       <c r="E30" s="3" t="s">
         <v>173</v>
       </c>
@@ -2672,10 +2676,10 @@
       <c r="J30" s="3"/>
     </row>
     <row r="31" spans="1:10" ht="60">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
       <c r="E31" s="3" t="s">
         <v>175</v>
       </c>
@@ -2690,10 +2694,10 @@
       <c r="J31" s="3"/>
     </row>
     <row r="32" spans="1:10" ht="24">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
       <c r="E32" s="3" t="s">
         <v>180</v>
       </c>
@@ -2708,10 +2712,10 @@
       <c r="J32" s="3"/>
     </row>
     <row r="33" spans="1:10" ht="24">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
       <c r="E33" s="3" t="s">
         <v>183</v>
       </c>
@@ -2726,10 +2730,10 @@
       <c r="J33" s="3"/>
     </row>
     <row r="34" spans="1:10" ht="48">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
+      <c r="A34" s="14"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3" t="s">
         <v>193</v>
@@ -2742,10 +2746,10 @@
       <c r="J34" s="3"/>
     </row>
     <row r="35" spans="1:10" ht="24">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
+      <c r="A35" s="14"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
       <c r="E35" s="3" t="s">
         <v>186</v>
       </c>
@@ -2760,10 +2764,10 @@
       <c r="J35" s="3"/>
     </row>
     <row r="36" spans="1:10" ht="24">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
       <c r="E36" s="3" t="s">
         <v>187</v>
       </c>
@@ -2778,10 +2782,10 @@
       <c r="J36" s="3"/>
     </row>
     <row r="37" spans="1:10" ht="24">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
+      <c r="A37" s="14"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
       <c r="E37" s="3" t="s">
         <v>188</v>
       </c>
@@ -2796,10 +2800,10 @@
       <c r="J37" s="3"/>
     </row>
     <row r="38" spans="1:10" ht="60">
-      <c r="A38" s="11"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="15"/>
+      <c r="A38" s="14"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="11"/>
       <c r="E38" s="3" t="s">
         <v>189</v>
       </c>
@@ -2814,10 +2818,10 @@
       <c r="J38" s="3"/>
     </row>
     <row r="39" spans="1:10" ht="24">
-      <c r="A39" s="11"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="13" t="s">
+      <c r="A39" s="14"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="10" t="s">
         <v>195</v>
       </c>
       <c r="E39" s="3" t="s">
@@ -2834,10 +2838,10 @@
       <c r="J39" s="3"/>
     </row>
     <row r="40" spans="1:10" ht="48">
-      <c r="A40" s="11"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="15"/>
+      <c r="A40" s="14"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="11"/>
       <c r="E40" s="3" t="s">
         <v>199</v>
       </c>
@@ -2852,9 +2856,9 @@
       <c r="J40" s="3"/>
     </row>
     <row r="41" spans="1:10" ht="24">
-      <c r="A41" s="12"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="15"/>
+      <c r="A41" s="13"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="11"/>
       <c r="D41" s="7" t="s">
         <v>17</v>
       </c>
@@ -2872,13 +2876,13 @@
       <c r="J41" s="3"/>
     </row>
     <row r="42" spans="1:10" ht="72">
-      <c r="A42" s="10" t="s">
+      <c r="A42" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C42" s="12" t="s">
         <v>32</v>
       </c>
       <c r="D42" s="7" t="s">
@@ -2900,9 +2904,9 @@
       <c r="J42" s="3"/>
     </row>
     <row r="43" spans="1:10" ht="36">
-      <c r="A43" s="11"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
+      <c r="A43" s="14"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
       <c r="D43" s="8" t="s">
         <v>38</v>
       </c>
@@ -2918,9 +2922,9 @@
       <c r="J43" s="3"/>
     </row>
     <row r="44" spans="1:10" ht="96">
-      <c r="A44" s="11"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
+      <c r="A44" s="14"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
       <c r="D44" s="7" t="s">
         <v>40</v>
       </c>
@@ -2938,9 +2942,9 @@
       <c r="J44" s="3"/>
     </row>
     <row r="45" spans="1:10" ht="24">
-      <c r="A45" s="11"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
+      <c r="A45" s="14"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
       <c r="D45" s="8" t="s">
         <v>43</v>
       </c>
@@ -2956,10 +2960,10 @@
       <c r="J45" s="3"/>
     </row>
     <row r="46" spans="1:10" ht="36">
-      <c r="A46" s="11"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="13" t="s">
+      <c r="A46" s="14"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="10" t="s">
         <v>46</v>
       </c>
       <c r="E46" s="5" t="s">
@@ -2976,10 +2980,10 @@
       <c r="J46" s="3"/>
     </row>
     <row r="47" spans="1:10" ht="24">
-      <c r="A47" s="11"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="14"/>
+      <c r="A47" s="14"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="15"/>
       <c r="E47" s="5"/>
       <c r="F47" s="6" t="s">
         <v>227</v>
@@ -2992,10 +2996,10 @@
       <c r="J47" s="3"/>
     </row>
     <row r="48" spans="1:10" ht="48">
-      <c r="A48" s="11"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="15"/>
+      <c r="A48" s="14"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="11"/>
       <c r="E48" s="3"/>
       <c r="F48" s="3" t="s">
         <v>229</v>
@@ -3008,9 +3012,9 @@
       <c r="J48" s="3"/>
     </row>
     <row r="49" spans="1:10" ht="84">
-      <c r="A49" s="11"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
+      <c r="A49" s="14"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
       <c r="D49" s="7" t="s">
         <v>49</v>
       </c>
@@ -3028,9 +3032,9 @@
       <c r="J49" s="3"/>
     </row>
     <row r="50" spans="1:10" ht="60">
-      <c r="A50" s="11"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="11"/>
+      <c r="A50" s="14"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
       <c r="D50" s="8" t="s">
         <v>230</v>
       </c>
@@ -3048,9 +3052,9 @@
       <c r="J50" s="3"/>
     </row>
     <row r="51" spans="1:10" ht="96">
-      <c r="A51" s="11"/>
-      <c r="B51" s="11"/>
-      <c r="C51" s="11"/>
+      <c r="A51" s="14"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
       <c r="D51" s="7" t="s">
         <v>55</v>
       </c>
@@ -3068,10 +3072,10 @@
       <c r="J51" s="3"/>
     </row>
     <row r="52" spans="1:10" ht="84">
-      <c r="A52" s="11"/>
-      <c r="B52" s="11"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="13" t="s">
+      <c r="A52" s="14"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="10" t="s">
         <v>233</v>
       </c>
       <c r="E52" s="3" t="s">
@@ -3090,10 +3094,10 @@
       <c r="J52" s="3"/>
     </row>
     <row r="53" spans="1:10" ht="24">
-      <c r="A53" s="11"/>
-      <c r="B53" s="11"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="14"/>
+      <c r="A53" s="14"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="15"/>
       <c r="E53" s="3" t="s">
         <v>234</v>
       </c>
@@ -3106,10 +3110,10 @@
       <c r="J53" s="3"/>
     </row>
     <row r="54" spans="1:10" ht="72">
-      <c r="A54" s="11"/>
-      <c r="B54" s="11"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="14"/>
+      <c r="A54" s="14"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="15"/>
       <c r="E54" s="3" t="s">
         <v>59</v>
       </c>
@@ -3126,10 +3130,10 @@
       <c r="J54" s="3"/>
     </row>
     <row r="55" spans="1:10" ht="36">
-      <c r="A55" s="11"/>
-      <c r="B55" s="11"/>
-      <c r="C55" s="11"/>
-      <c r="D55" s="14"/>
+      <c r="A55" s="14"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="15"/>
       <c r="E55" s="3"/>
       <c r="F55" s="3" t="s">
         <v>241</v>
@@ -3142,10 +3146,10 @@
       <c r="J55" s="3"/>
     </row>
     <row r="56" spans="1:10" ht="36">
-      <c r="A56" s="11"/>
-      <c r="B56" s="11"/>
-      <c r="C56" s="11"/>
-      <c r="D56" s="14"/>
+      <c r="A56" s="14"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="15"/>
       <c r="E56" s="3" t="s">
         <v>61</v>
       </c>
@@ -3160,10 +3164,10 @@
       <c r="J56" s="3"/>
     </row>
     <row r="57" spans="1:10" ht="36">
-      <c r="A57" s="11"/>
-      <c r="B57" s="11"/>
-      <c r="C57" s="11"/>
-      <c r="D57" s="14"/>
+      <c r="A57" s="14"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="15"/>
       <c r="E57" s="3"/>
       <c r="F57" s="3" t="s">
         <v>245</v>
@@ -3176,10 +3180,10 @@
       <c r="J57" s="3"/>
     </row>
     <row r="58" spans="1:10" ht="48">
-      <c r="A58" s="11"/>
-      <c r="B58" s="11"/>
-      <c r="C58" s="11"/>
-      <c r="D58" s="15"/>
+      <c r="A58" s="14"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="11"/>
       <c r="E58" s="3" t="s">
         <v>246</v>
       </c>
@@ -3196,9 +3200,9 @@
       <c r="J58" s="3"/>
     </row>
     <row r="59" spans="1:10" ht="60">
-      <c r="A59" s="11"/>
-      <c r="B59" s="11"/>
-      <c r="C59" s="11"/>
+      <c r="A59" s="14"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
       <c r="D59" s="3" t="s">
         <v>290</v>
       </c>
@@ -3216,9 +3220,9 @@
       <c r="J59" s="3"/>
     </row>
     <row r="60" spans="1:10" ht="48">
-      <c r="A60" s="11"/>
-      <c r="B60" s="11"/>
-      <c r="C60" s="11"/>
+      <c r="A60" s="14"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
       <c r="D60" s="3" t="s">
         <v>294</v>
       </c>
@@ -3236,9 +3240,9 @@
       <c r="J60" s="3"/>
     </row>
     <row r="61" spans="1:10" ht="72">
-      <c r="A61" s="11"/>
-      <c r="B61" s="11"/>
-      <c r="C61" s="11"/>
+      <c r="A61" s="14"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3" t="s">
         <v>297</v>
@@ -3254,9 +3258,9 @@
       <c r="J61" s="3"/>
     </row>
     <row r="62" spans="1:10" ht="48">
-      <c r="A62" s="11"/>
-      <c r="B62" s="11"/>
-      <c r="C62" s="11"/>
+      <c r="A62" s="14"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3" t="s">
         <v>299</v>
@@ -3272,9 +3276,9 @@
       <c r="J62" s="3"/>
     </row>
     <row r="63" spans="1:10" ht="24">
-      <c r="A63" s="11"/>
-      <c r="B63" s="11"/>
-      <c r="C63" s="11"/>
+      <c r="A63" s="14"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3" t="s">
         <v>300</v>
@@ -3290,9 +3294,9 @@
       <c r="J63" s="3"/>
     </row>
     <row r="64" spans="1:10" ht="48">
-      <c r="A64" s="11"/>
-      <c r="B64" s="11"/>
-      <c r="C64" s="11"/>
+      <c r="A64" s="14"/>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3" t="s">
         <v>301</v>
@@ -3308,9 +3312,9 @@
       <c r="J64" s="3"/>
     </row>
     <row r="65" spans="1:10" ht="24">
-      <c r="A65" s="11"/>
-      <c r="B65" s="11"/>
-      <c r="C65" s="11"/>
+      <c r="A65" s="14"/>
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3" t="s">
         <v>307</v>
@@ -3326,9 +3330,9 @@
       <c r="J65" s="3"/>
     </row>
     <row r="66" spans="1:10" ht="72">
-      <c r="A66" s="11"/>
-      <c r="B66" s="11"/>
-      <c r="C66" s="11"/>
+      <c r="A66" s="14"/>
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3" t="s">
         <v>310</v>
@@ -3344,10 +3348,10 @@
       <c r="J66" s="3"/>
     </row>
     <row r="67" spans="1:10" ht="120">
-      <c r="A67" s="11"/>
-      <c r="B67" s="11"/>
-      <c r="C67" s="11"/>
-      <c r="D67" s="13" t="s">
+      <c r="A67" s="14"/>
+      <c r="B67" s="14"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="10" t="s">
         <v>64</v>
       </c>
       <c r="E67" s="3"/>
@@ -3364,10 +3368,10 @@
       <c r="J67" s="3"/>
     </row>
     <row r="68" spans="1:10" ht="36">
-      <c r="A68" s="11"/>
-      <c r="B68" s="11"/>
-      <c r="C68" s="11"/>
-      <c r="D68" s="14"/>
+      <c r="A68" s="14"/>
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="15"/>
       <c r="E68" s="2" t="s">
         <v>255</v>
       </c>
@@ -3382,10 +3386,10 @@
       <c r="J68" s="3"/>
     </row>
     <row r="69" spans="1:10" ht="120">
-      <c r="A69" s="11"/>
-      <c r="B69" s="11"/>
-      <c r="C69" s="11"/>
-      <c r="D69" s="14"/>
+      <c r="A69" s="14"/>
+      <c r="B69" s="14"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="15"/>
       <c r="E69" s="3" t="s">
         <v>251</v>
       </c>
@@ -3402,10 +3406,10 @@
       <c r="J69" s="3"/>
     </row>
     <row r="70" spans="1:10" ht="60">
-      <c r="A70" s="11"/>
-      <c r="B70" s="11"/>
-      <c r="C70" s="11"/>
-      <c r="D70" s="14"/>
+      <c r="A70" s="14"/>
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="15"/>
       <c r="E70" s="3"/>
       <c r="F70" s="3" t="s">
         <v>258</v>
@@ -3418,10 +3422,10 @@
       <c r="J70" s="3"/>
     </row>
     <row r="71" spans="1:10" ht="60">
-      <c r="A71" s="11"/>
-      <c r="B71" s="11"/>
-      <c r="C71" s="11"/>
-      <c r="D71" s="14"/>
+      <c r="A71" s="14"/>
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="15"/>
       <c r="E71" s="3"/>
       <c r="F71" s="3" t="s">
         <v>260</v>
@@ -3434,10 +3438,10 @@
       <c r="J71" s="3"/>
     </row>
     <row r="72" spans="1:10" ht="108">
-      <c r="A72" s="11"/>
-      <c r="B72" s="11"/>
-      <c r="C72" s="11"/>
-      <c r="D72" s="15"/>
+      <c r="A72" s="14"/>
+      <c r="B72" s="14"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="11"/>
       <c r="E72" s="3" t="s">
         <v>65</v>
       </c>
@@ -3454,10 +3458,10 @@
       <c r="J72" s="3"/>
     </row>
     <row r="73" spans="1:10" ht="144">
-      <c r="A73" s="11"/>
-      <c r="B73" s="11"/>
-      <c r="C73" s="11"/>
-      <c r="D73" s="13" t="s">
+      <c r="A73" s="14"/>
+      <c r="B73" s="14"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="10" t="s">
         <v>69</v>
       </c>
       <c r="E73" s="3"/>
@@ -3472,10 +3476,10 @@
       <c r="J73" s="3"/>
     </row>
     <row r="74" spans="1:10" ht="60">
-      <c r="A74" s="11"/>
-      <c r="B74" s="11"/>
-      <c r="C74" s="11"/>
-      <c r="D74" s="14"/>
+      <c r="A74" s="14"/>
+      <c r="B74" s="14"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="15"/>
       <c r="E74" s="4" t="s">
         <v>71</v>
       </c>
@@ -3490,10 +3494,10 @@
       <c r="J74" s="3"/>
     </row>
     <row r="75" spans="1:10" ht="60">
-      <c r="A75" s="11"/>
-      <c r="B75" s="11"/>
-      <c r="C75" s="11"/>
-      <c r="D75" s="14"/>
+      <c r="A75" s="14"/>
+      <c r="B75" s="14"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="15"/>
       <c r="E75" s="3" t="s">
         <v>74</v>
       </c>
@@ -3508,10 +3512,10 @@
       <c r="J75" s="3"/>
     </row>
     <row r="76" spans="1:10" ht="36">
-      <c r="A76" s="11"/>
-      <c r="B76" s="11"/>
-      <c r="C76" s="11"/>
-      <c r="D76" s="15"/>
+      <c r="A76" s="14"/>
+      <c r="B76" s="14"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="11"/>
       <c r="E76" s="3" t="s">
         <v>76</v>
       </c>
@@ -3526,10 +3530,10 @@
       <c r="J76" s="3"/>
     </row>
     <row r="77" spans="1:10" ht="60">
-      <c r="A77" s="11"/>
-      <c r="B77" s="11"/>
-      <c r="C77" s="11"/>
-      <c r="D77" s="13" t="s">
+      <c r="A77" s="14"/>
+      <c r="B77" s="14"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="10" t="s">
         <v>79</v>
       </c>
       <c r="E77" s="3" t="s">
@@ -3546,10 +3550,10 @@
       <c r="J77" s="3"/>
     </row>
     <row r="78" spans="1:10" ht="36">
-      <c r="A78" s="11"/>
-      <c r="B78" s="11"/>
-      <c r="C78" s="11"/>
-      <c r="D78" s="14"/>
+      <c r="A78" s="14"/>
+      <c r="B78" s="14"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="15"/>
       <c r="E78" s="3"/>
       <c r="F78" s="3" t="s">
         <v>265</v>
@@ -3562,10 +3566,10 @@
       <c r="J78" s="3"/>
     </row>
     <row r="79" spans="1:10" ht="36">
-      <c r="A79" s="11"/>
-      <c r="B79" s="11"/>
-      <c r="C79" s="11"/>
-      <c r="D79" s="14"/>
+      <c r="A79" s="14"/>
+      <c r="B79" s="14"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="15"/>
       <c r="E79" s="3"/>
       <c r="F79" s="3" t="s">
         <v>267</v>
@@ -3578,10 +3582,10 @@
       <c r="J79" s="3"/>
     </row>
     <row r="80" spans="1:10" ht="60">
-      <c r="A80" s="11"/>
-      <c r="B80" s="11"/>
-      <c r="C80" s="11"/>
-      <c r="D80" s="14"/>
+      <c r="A80" s="14"/>
+      <c r="B80" s="14"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="15"/>
       <c r="E80" s="3"/>
       <c r="F80" s="3" t="s">
         <v>269</v>
@@ -3594,10 +3598,10 @@
       <c r="J80" s="3"/>
     </row>
     <row r="81" spans="1:10" ht="60">
-      <c r="A81" s="11"/>
-      <c r="B81" s="11"/>
-      <c r="C81" s="11"/>
-      <c r="D81" s="14"/>
+      <c r="A81" s="14"/>
+      <c r="B81" s="14"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="15"/>
       <c r="E81" s="3"/>
       <c r="F81" s="3" t="s">
         <v>269</v>
@@ -3610,10 +3614,10 @@
       <c r="J81" s="3"/>
     </row>
     <row r="82" spans="1:10" ht="60">
-      <c r="A82" s="11"/>
-      <c r="B82" s="11"/>
-      <c r="C82" s="11"/>
-      <c r="D82" s="14"/>
+      <c r="A82" s="14"/>
+      <c r="B82" s="14"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="15"/>
       <c r="E82" s="3"/>
       <c r="F82" s="3" t="s">
         <v>271</v>
@@ -3628,10 +3632,10 @@
       <c r="J82" s="3"/>
     </row>
     <row r="83" spans="1:10" ht="36">
-      <c r="A83" s="11"/>
-      <c r="B83" s="11"/>
-      <c r="C83" s="11"/>
-      <c r="D83" s="14"/>
+      <c r="A83" s="14"/>
+      <c r="B83" s="14"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="15"/>
       <c r="E83" s="3" t="s">
         <v>82</v>
       </c>
@@ -3646,10 +3650,10 @@
       <c r="J83" s="3"/>
     </row>
     <row r="84" spans="1:10" ht="60">
-      <c r="A84" s="11"/>
-      <c r="B84" s="11"/>
-      <c r="C84" s="11"/>
-      <c r="D84" s="14"/>
+      <c r="A84" s="14"/>
+      <c r="B84" s="14"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="15"/>
       <c r="E84" s="3" t="s">
         <v>85</v>
       </c>
@@ -3664,10 +3668,10 @@
       <c r="J84" s="3"/>
     </row>
     <row r="85" spans="1:10" ht="36">
-      <c r="A85" s="11"/>
-      <c r="B85" s="11"/>
-      <c r="C85" s="11"/>
-      <c r="D85" s="15"/>
+      <c r="A85" s="14"/>
+      <c r="B85" s="14"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="11"/>
       <c r="E85" s="3"/>
       <c r="F85" s="3" t="s">
         <v>88</v>
@@ -3680,10 +3684,10 @@
       <c r="J85" s="3"/>
     </row>
     <row r="86" spans="1:10" ht="72">
-      <c r="A86" s="11"/>
-      <c r="B86" s="11"/>
-      <c r="C86" s="11"/>
-      <c r="D86" s="13" t="s">
+      <c r="A86" s="14"/>
+      <c r="B86" s="14"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="10" t="s">
         <v>90</v>
       </c>
       <c r="E86" s="3" t="s">
@@ -3700,10 +3704,10 @@
       <c r="J86" s="3"/>
     </row>
     <row r="87" spans="1:10">
-      <c r="A87" s="11"/>
-      <c r="B87" s="11"/>
-      <c r="C87" s="11"/>
-      <c r="D87" s="14"/>
+      <c r="A87" s="14"/>
+      <c r="B87" s="14"/>
+      <c r="C87" s="14"/>
+      <c r="D87" s="15"/>
       <c r="E87" s="3"/>
       <c r="F87" s="3" t="s">
         <v>94</v>
@@ -3716,10 +3720,10 @@
       <c r="J87" s="3"/>
     </row>
     <row r="88" spans="1:10" ht="24">
-      <c r="A88" s="11"/>
-      <c r="B88" s="11"/>
-      <c r="C88" s="11"/>
-      <c r="D88" s="14"/>
+      <c r="A88" s="14"/>
+      <c r="B88" s="14"/>
+      <c r="C88" s="14"/>
+      <c r="D88" s="15"/>
       <c r="E88" s="3" t="s">
         <v>96</v>
       </c>
@@ -3734,10 +3738,10 @@
       <c r="J88" s="3"/>
     </row>
     <row r="89" spans="1:10">
-      <c r="A89" s="12"/>
-      <c r="B89" s="12"/>
-      <c r="C89" s="12"/>
-      <c r="D89" s="15"/>
+      <c r="A89" s="13"/>
+      <c r="B89" s="13"/>
+      <c r="C89" s="13"/>
+      <c r="D89" s="11"/>
       <c r="E89" s="3"/>
       <c r="F89" s="3" t="s">
         <v>94</v>
@@ -3750,13 +3754,13 @@
       <c r="J89" s="3"/>
     </row>
     <row r="90" spans="1:10" ht="24">
-      <c r="A90" s="10" t="s">
+      <c r="A90" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="B90" s="10" t="s">
+      <c r="B90" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="C90" s="10" t="s">
+      <c r="C90" s="12" t="s">
         <v>101</v>
       </c>
       <c r="D90" s="3" t="s">
@@ -3776,9 +3780,9 @@
       <c r="J90" s="3"/>
     </row>
     <row r="91" spans="1:10" ht="24">
-      <c r="A91" s="12"/>
-      <c r="B91" s="12"/>
-      <c r="C91" s="12"/>
+      <c r="A91" s="13"/>
+      <c r="B91" s="13"/>
+      <c r="C91" s="13"/>
       <c r="D91" s="3" t="s">
         <v>106</v>
       </c>
@@ -3848,16 +3852,16 @@
       <c r="J93" s="3"/>
     </row>
     <row r="94" spans="1:10" ht="36">
-      <c r="A94" s="10" t="s">
+      <c r="A94" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="B94" s="10" t="s">
+      <c r="B94" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="C94" s="10" t="s">
+      <c r="C94" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="D94" s="13" t="s">
+      <c r="D94" s="10" t="s">
         <v>125</v>
       </c>
       <c r="E94" s="3" t="s">
@@ -3874,10 +3878,10 @@
       <c r="J94" s="3"/>
     </row>
     <row r="95" spans="1:10" ht="36">
-      <c r="A95" s="11"/>
-      <c r="B95" s="11"/>
-      <c r="C95" s="11"/>
-      <c r="D95" s="15"/>
+      <c r="A95" s="14"/>
+      <c r="B95" s="14"/>
+      <c r="C95" s="14"/>
+      <c r="D95" s="11"/>
       <c r="E95" s="3" t="s">
         <v>129</v>
       </c>
@@ -3892,9 +3896,9 @@
       <c r="J95" s="3"/>
     </row>
     <row r="96" spans="1:10" ht="144">
-      <c r="A96" s="11"/>
-      <c r="B96" s="11"/>
-      <c r="C96" s="11"/>
+      <c r="A96" s="14"/>
+      <c r="B96" s="14"/>
+      <c r="C96" s="14"/>
       <c r="D96" s="7" t="s">
         <v>131</v>
       </c>
@@ -3912,9 +3916,9 @@
       <c r="J96" s="3"/>
     </row>
     <row r="97" spans="1:10" ht="24">
-      <c r="A97" s="11"/>
-      <c r="B97" s="11"/>
-      <c r="C97" s="11"/>
+      <c r="A97" s="14"/>
+      <c r="B97" s="14"/>
+      <c r="C97" s="14"/>
       <c r="D97" s="7" t="s">
         <v>135</v>
       </c>
@@ -3932,9 +3936,9 @@
       <c r="J97" s="3"/>
     </row>
     <row r="98" spans="1:10" ht="60">
-      <c r="A98" s="11"/>
-      <c r="B98" s="11"/>
-      <c r="C98" s="11"/>
+      <c r="A98" s="14"/>
+      <c r="B98" s="14"/>
+      <c r="C98" s="14"/>
       <c r="D98" s="7" t="s">
         <v>139</v>
       </c>
@@ -3952,9 +3956,9 @@
       <c r="J98" s="3"/>
     </row>
     <row r="99" spans="1:10" ht="24">
-      <c r="A99" s="12"/>
-      <c r="B99" s="12"/>
-      <c r="C99" s="12"/>
+      <c r="A99" s="13"/>
+      <c r="B99" s="13"/>
+      <c r="C99" s="13"/>
       <c r="D99" s="7" t="s">
         <v>143</v>
       </c>
@@ -3967,15 +3971,141 @@
       <c r="I99" s="3"/>
       <c r="J99" s="3"/>
     </row>
+    <row r="100" spans="1:10" ht="36">
+      <c r="A100" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="B100" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C100" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D100" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H100" s="3"/>
+      <c r="I100" s="3"/>
+      <c r="J100" s="3"/>
+    </row>
+    <row r="101" spans="1:10" ht="36">
+      <c r="A101" s="14"/>
+      <c r="B101" s="14"/>
+      <c r="C101" s="14"/>
+      <c r="D101" s="11"/>
+      <c r="E101" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H101" s="3"/>
+      <c r="I101" s="3"/>
+      <c r="J101" s="3"/>
+    </row>
+    <row r="102" spans="1:10" ht="144">
+      <c r="A102" s="14"/>
+      <c r="B102" s="14"/>
+      <c r="C102" s="14"/>
+      <c r="D102" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="H102" s="3"/>
+      <c r="I102" s="3"/>
+      <c r="J102" s="3"/>
+    </row>
+    <row r="103" spans="1:10" ht="24">
+      <c r="A103" s="14"/>
+      <c r="B103" s="14"/>
+      <c r="C103" s="14"/>
+      <c r="D103" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H103" s="3"/>
+      <c r="I103" s="3"/>
+      <c r="J103" s="3"/>
+    </row>
+    <row r="104" spans="1:10" ht="60">
+      <c r="A104" s="14"/>
+      <c r="B104" s="14"/>
+      <c r="C104" s="14"/>
+      <c r="D104" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="H104" s="3"/>
+      <c r="I104" s="3"/>
+      <c r="J104" s="3"/>
+    </row>
+    <row r="105" spans="1:10" ht="24">
+      <c r="A105" s="13"/>
+      <c r="B105" s="13"/>
+      <c r="C105" s="13"/>
+      <c r="D105" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F105" s="3"/>
+      <c r="G105" s="3"/>
+      <c r="H105" s="3"/>
+      <c r="I105" s="3"/>
+      <c r="J105" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="D94:D95"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="A94:A99"/>
-    <mergeCell ref="B94:B99"/>
-    <mergeCell ref="C94:C99"/>
+  <mergeCells count="29">
+    <mergeCell ref="A100:A105"/>
+    <mergeCell ref="B100:B105"/>
+    <mergeCell ref="C100:C105"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="A2:A41"/>
+    <mergeCell ref="B2:B41"/>
+    <mergeCell ref="C2:C41"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="D26:D38"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="D20:D24"/>
     <mergeCell ref="A42:A89"/>
     <mergeCell ref="B42:B89"/>
     <mergeCell ref="C42:C89"/>
@@ -3985,15 +4115,13 @@
     <mergeCell ref="D73:D76"/>
     <mergeCell ref="D77:D85"/>
     <mergeCell ref="D86:D89"/>
-    <mergeCell ref="A2:A41"/>
-    <mergeCell ref="B2:B41"/>
-    <mergeCell ref="C2:C41"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="D26:D38"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="D94:D95"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="A94:A99"/>
+    <mergeCell ref="B94:B99"/>
+    <mergeCell ref="C94:C99"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
